--- a/excel_maestrantes.xlsx
+++ b/excel_maestrantes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>N°</t>
   </si>
@@ -32,163 +32,112 @@
     <t>Maestrante</t>
   </si>
   <si>
-    <t>RUIZ GARCIA GLORIA PILAR</t>
-  </si>
-  <si>
-    <t>gruizg@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>FRANCO PIN MARÍA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>mfrancopi@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>GARCIA ERAZO PILAR DEL ROCIO </t>
-  </si>
-  <si>
-    <t>pgarciae@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>BELDUMA RENTERIA LISSETH ADRIANA </t>
-  </si>
-  <si>
-    <t>lbeldumar@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>FILIAN COCA ELITA VANESSA </t>
-  </si>
-  <si>
-    <t>efilianc@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>GONZALEZ MEJIA SILVANA LISSETTE</t>
-  </si>
-  <si>
-    <t>sgonzalezme@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>VILEMA ROMERO DIANA CAROLINA</t>
-  </si>
-  <si>
-    <t>dvilemar@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>MENDOZA LAYEDRA KEYLA NATALI</t>
-  </si>
-  <si>
-    <t>kmendozala@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>PAZMIÑO CAYMAYO GABRIELA DEL ROCIO</t>
-  </si>
-  <si>
-    <t>gpazminoc@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>PALACIOS GILCES KAROL EVELYN</t>
-  </si>
-  <si>
-    <t>kpalaciosg@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>MERINO FRANCO CHRISTIAN MIGUEL</t>
-  </si>
-  <si>
-    <t>cmerinof@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>GARCES ALAVA MAGALI SOLANGE</t>
-  </si>
-  <si>
-    <t>mgarcesa@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>PLUA BONILLA MERCEDES ELIZABETH</t>
-  </si>
-  <si>
-    <t>mpluab@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>ROMERO COBEÑA GREY LILIANA</t>
-  </si>
-  <si>
-    <t>gromeroc@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>BUSTAMANTE ALVARADO NOEMI CHANENA</t>
-  </si>
-  <si>
-    <t>nbustamantea@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>GUERRERO VELIZ SHIRLEY SORAYA</t>
-  </si>
-  <si>
-    <t>sguerrerov@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>BAJAÑA QUINTANA ELIDA YESENIA</t>
-  </si>
-  <si>
-    <t>ebajanaq@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>0909769481 </t>
-  </si>
-  <si>
-    <t>BAJAÑA SALAZAR HERMINIA HAYDEE</t>
-  </si>
-  <si>
-    <t>hbajanas@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>INDACOCHEA CHAVEZ LADY DIANA</t>
-  </si>
-  <si>
-    <t>lindacocheac@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>TORRES RUIZ YASMIRLE AURORA</t>
-  </si>
-  <si>
-    <t>ytorresr@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>MOROCHO GARCIA MAYRA FRANCISCA</t>
-  </si>
-  <si>
-    <t>mmorochog@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>RAMÓN MALDONADO SONIA MARLENE</t>
-  </si>
-  <si>
-    <t>sramonm@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>CEDEÑO COBOS MELISSA NICOLE</t>
-  </si>
-  <si>
-    <t>mcedenoc@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>IBARRA ORDOÑEZ JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>jibarrao@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>MEDINA MAZZINI EDUARDO JOSE</t>
-  </si>
-  <si>
-    <t>emedinam@ulvr.edu.ec</t>
-  </si>
-  <si>
     <t>cedula</t>
   </si>
   <si>
     <t>correo</t>
+  </si>
+  <si>
+    <t>URBAN VELASCO SUANNY PATRICIA</t>
+  </si>
+  <si>
+    <t>surbanv@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>CALLE AVILA JANETH ALEXANDRA</t>
+  </si>
+  <si>
+    <t>jcallea@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>SUÁREZ YAGUAL LIDIA YANINA</t>
+  </si>
+  <si>
+    <t>lsuarezy@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>JARAMILLO HANNA LORENA ELIZABETH</t>
+  </si>
+  <si>
+    <t>ljaramilloh@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>RIVAS CHAVEZ EDWIN ALI</t>
+  </si>
+  <si>
+    <t>erivasc@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>ANAGUANO PEREZ KATY ADONAYDA</t>
+  </si>
+  <si>
+    <t>kanaguanop@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>VILLAMAR MONTEROS SOFIA MARGARITA</t>
+  </si>
+  <si>
+    <t>svillamarmon@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>VILLALBA RAMÍREZ CHRISTIAN ALBERTO</t>
+  </si>
+  <si>
+    <t>cvillalbar@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>DONOSO OROZCO DAVID SEBASTIAN</t>
+  </si>
+  <si>
+    <t>ddonosoo@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>CASTRO TORRES NELSON LEONEL</t>
+  </si>
+  <si>
+    <t>ncastrot@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>VELASCO BORJA GUIDO ENRIQUE</t>
+  </si>
+  <si>
+    <t>gvelascob@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>TOLEDO BRAVO BLANCA MARIA</t>
+  </si>
+  <si>
+    <t>btoledob@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>MARMOLEJO MACIAS LASTENIA REBECA</t>
+  </si>
+  <si>
+    <t>lmarmolejom@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>NARVAEZ SEVILLANO JANET GRACIELA</t>
+  </si>
+  <si>
+    <t>anarvaezs@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>ILLINGWORTH POTES JENNY ROXANA</t>
+  </si>
+  <si>
+    <t>jillingworthp@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>SOLARI DÁVILA ANGEL JAMIL</t>
+  </si>
+  <si>
+    <t>asolarid@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>LUCAS CHANCAY RAFAEL MARCOS</t>
+  </si>
+  <si>
+    <t>rlucasc@ulvr.edu.ec</t>
   </si>
 </sst>
 </file>
@@ -217,18 +166,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -240,13 +190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFB4C6E7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,23 +264,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -614,410 +567,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>925359739</v>
+        <v>920531076</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>918181645</v>
+        <v>917629818</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>919540641</v>
+        <v>924685654</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>704789627</v>
+        <v>916046386</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1205920737</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>922717079</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>928808930</v>
+        <v>914923743</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>950079491</v>
+        <v>926598434</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>940535263</v>
+        <v>925195695</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>927645754</v>
+        <v>1002760237</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>922004528</v>
+        <v>103896650</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>1309277448</v>
+        <v>919538090</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>924994114</v>
+        <v>908151087</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>917605115</v>
+        <v>912562063</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>924144017</v>
+        <v>921978888</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>910419662</v>
+        <v>921308797</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>919739508</v>
+        <v>927214403</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>922242573</v>
+        <v>919197608</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <v>924974850</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>922390141</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>301570420</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>914618731</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1315693182</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4">
-        <v>920712775</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4">
-        <v>918078924</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="mailto:gruizg@ulvr.edu.ec"/>
-    <hyperlink ref="D3" r:id="rId2" display="mailto:mfrancopi@ulvr.edu.ec"/>
-    <hyperlink ref="D4" r:id="rId3" display="mailto:pgarciae@ulvr.edu.ec"/>
-    <hyperlink ref="D5" r:id="rId4" display="mailto:lbeldumar@ulvr.edu.ec"/>
-    <hyperlink ref="D6" r:id="rId5" display="mailto:efilianc@ulvr.edu.ec"/>
-    <hyperlink ref="D7" r:id="rId6" display="mailto:sgonzalezme@ulvr.edu.ec"/>
-    <hyperlink ref="D8" r:id="rId7" display="mailto:dvilemar@ulvr.edu.ec"/>
-    <hyperlink ref="D9" r:id="rId8" display="mailto:kmendozala@ulvr.edu.ec"/>
-    <hyperlink ref="D10" r:id="rId9" display="mailto:gpazminoc@ulvr.edu.ec"/>
-    <hyperlink ref="D11" r:id="rId10" display="mailto:kpalaciosg@ulvr.edu.ec"/>
-    <hyperlink ref="D12" r:id="rId11" display="mailto:cmerinof@ulvr.edu.ec"/>
-    <hyperlink ref="D13" r:id="rId12" display="mailto:mgarcesa@ulvr.edu.ec"/>
-    <hyperlink ref="D14" r:id="rId13" display="mailto:mpluab@ulvr.edu.ec"/>
-    <hyperlink ref="D15" r:id="rId14" display="mailto:gromeroc@ulvr.edu.ec"/>
-    <hyperlink ref="D16" r:id="rId15" display="mailto:nbustamantea@ulvr.edu.ec"/>
-    <hyperlink ref="D17" r:id="rId16" display="mailto:sguerrerov@ulvr.edu.ec"/>
-    <hyperlink ref="D18" r:id="rId17" display="mailto:ebajanaq@ulvr.edu.ec"/>
-    <hyperlink ref="D19" r:id="rId18" display="mailto:hbajanas@ulvr.edu.ec"/>
-    <hyperlink ref="D20" r:id="rId19" display="mailto:lindacocheac@ulvr.edu.ec"/>
-    <hyperlink ref="D21" r:id="rId20" display="mailto:ytorresr@ulvr.edu.ec"/>
-    <hyperlink ref="D22" r:id="rId21" display="mailto:mmorochog@ulvr.edu.ec"/>
-    <hyperlink ref="D23" r:id="rId22" display="mailto:sramonm@ulvr.edu.ec"/>
-    <hyperlink ref="D24" r:id="rId23" display="mailto:mcedenoc@ulvr.edu.ec"/>
-    <hyperlink ref="D25" r:id="rId24" display="mailto:jibarrao@ulvr.edu.ec"/>
-    <hyperlink ref="D26" r:id="rId25" display="mailto:emedinam@ulvr.edu.ec"/>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:surbanv@ulvr.edu.ec"/>
+    <hyperlink ref="D3" r:id="rId2" display="mailto:jcallea@ulvr.edu.ec"/>
+    <hyperlink ref="D4" r:id="rId3" display="mailto:lsuarezy@ulvr.edu.ec"/>
+    <hyperlink ref="D5" r:id="rId4" display="mailto:ljaramilloh@ulvr.edu.ec"/>
+    <hyperlink ref="D6" r:id="rId5" display="mailto:erivasc@ulvr.edu.ec"/>
+    <hyperlink ref="D7" r:id="rId6" display="mailto:kanaguanop@ulvr.edu.ec"/>
+    <hyperlink ref="D8" r:id="rId7" display="mailto:svillamarmon@ulvr.edu.ec"/>
+    <hyperlink ref="D9" r:id="rId8" display="mailto:cvillalbar@ulvr.edu.ec"/>
+    <hyperlink ref="D10" r:id="rId9" display="mailto:ddonosoo@ulvr.edu.ec"/>
+    <hyperlink ref="D11" r:id="rId10" display="mailto:ncastrot@ulvr.edu.ec"/>
+    <hyperlink ref="D12" r:id="rId11" display="mailto:gvelascob@ulvr.edu.ec"/>
+    <hyperlink ref="D13" r:id="rId12" display="mailto:btoledob@ulvr.edu.ec"/>
+    <hyperlink ref="D14" r:id="rId13" display="mailto:lmarmolejom@ulvr.edu.ec"/>
+    <hyperlink ref="D15" r:id="rId14" display="mailto:anarvaezs@ulvr.edu.ec"/>
+    <hyperlink ref="D16" r:id="rId15" display="mailto:jillingworthp@ulvr.edu.ec"/>
+    <hyperlink ref="D17" r:id="rId16" display="mailto:asolarid@ulvr.edu.ec"/>
+    <hyperlink ref="D18" r:id="rId17" display="mailto:rlucasc@ulvr.edu.ec"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
--- a/excel_maestrantes.xlsx
+++ b/excel_maestrantes.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\encuesta-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9D8D95-59CE-4F22-840C-22D0393FCAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maestrantes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>N°</t>
   </si>
@@ -38,112 +50,64 @@
     <t>correo</t>
   </si>
   <si>
-    <t>URBAN VELASCO SUANNY PATRICIA</t>
-  </si>
-  <si>
-    <t>surbanv@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>CALLE AVILA JANETH ALEXANDRA</t>
-  </si>
-  <si>
-    <t>jcallea@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>SUÁREZ YAGUAL LIDIA YANINA</t>
-  </si>
-  <si>
-    <t>lsuarezy@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>JARAMILLO HANNA LORENA ELIZABETH</t>
-  </si>
-  <si>
-    <t>ljaramilloh@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>RIVAS CHAVEZ EDWIN ALI</t>
-  </si>
-  <si>
-    <t>erivasc@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>ANAGUANO PEREZ KATY ADONAYDA</t>
-  </si>
-  <si>
-    <t>kanaguanop@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>VILLAMAR MONTEROS SOFIA MARGARITA</t>
-  </si>
-  <si>
-    <t>svillamarmon@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>VILLALBA RAMÍREZ CHRISTIAN ALBERTO</t>
-  </si>
-  <si>
-    <t>cvillalbar@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>DONOSO OROZCO DAVID SEBASTIAN</t>
-  </si>
-  <si>
-    <t>ddonosoo@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>CASTRO TORRES NELSON LEONEL</t>
-  </si>
-  <si>
-    <t>ncastrot@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>VELASCO BORJA GUIDO ENRIQUE</t>
-  </si>
-  <si>
-    <t>gvelascob@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>TOLEDO BRAVO BLANCA MARIA</t>
-  </si>
-  <si>
-    <t>btoledob@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>MARMOLEJO MACIAS LASTENIA REBECA</t>
-  </si>
-  <si>
-    <t>lmarmolejom@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>NARVAEZ SEVILLANO JANET GRACIELA</t>
-  </si>
-  <si>
-    <t>anarvaezs@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>ILLINGWORTH POTES JENNY ROXANA</t>
-  </si>
-  <si>
-    <t>jillingworthp@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>SOLARI DÁVILA ANGEL JAMIL</t>
-  </si>
-  <si>
-    <t>asolarid@ulvr.edu.ec</t>
-  </si>
-  <si>
-    <t>LUCAS CHANCAY RAFAEL MARCOS</t>
-  </si>
-  <si>
-    <t>rlucasc@ulvr.edu.ec</t>
+    <t>CEVALLOS CEDEÑO CARMEN GISSELA</t>
+  </si>
+  <si>
+    <t>ccevallosce@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>YAGUAL MARTINEZ ARMANDO ERNESTO</t>
+  </si>
+  <si>
+    <t>ayagualma@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>POVEDA PONCE LORENA MARICELA</t>
+  </si>
+  <si>
+    <t>lpovedap@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>ISLAM GARCIA WILLIAMS GEOVANNY</t>
+  </si>
+  <si>
+    <t>wislamg@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>HOLGUIN MERCHAN YESENIA GEOMAR</t>
+  </si>
+  <si>
+    <t>yholguinm@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>NOBOA CAMPUZANO HILDA CAROLINA</t>
+  </si>
+  <si>
+    <t>hnoboac@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>ANGULO MARTINEZ ANA JULIANA</t>
+  </si>
+  <si>
+    <t>aangulom@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>CORNEJO ORTEGA KAREN LEONOR</t>
+  </si>
+  <si>
+    <t>kcornejoo@ulvr.edu.ec</t>
+  </si>
+  <si>
+    <t>GUERRERO SUÁREZ KATHERINE ANABEL</t>
+  </si>
+  <si>
+    <t>kguerreros@ulvr.edu.ec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,12 +124,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -174,8 +132,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -196,12 +160,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFBEDAF4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,36 +201,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -274,16 +214,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,18 +503,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -595,12 +532,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>920531076</v>
+        <v>1312225228</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -609,12 +546,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>917629818</v>
+        <v>920435120</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -623,12 +560,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>924685654</v>
+        <v>1306368208</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -637,12 +574,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>916046386</v>
+        <v>923460703</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -651,26 +588,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>922717079</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>917512717</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>914923743</v>
+        <v>922570510</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
@@ -679,12 +616,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>926598434</v>
+        <v>940810864</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>16</v>
@@ -693,12 +630,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>925195695</v>
+        <v>928542620</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -707,12 +644,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>1002760237</v>
+        <v>919334797</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
@@ -721,139 +658,73 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>103896650</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>919538090</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>908151087</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>912562063</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>921978888</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>921308797</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>927214403</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>919197608</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>37</v>
-      </c>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="mailto:surbanv@ulvr.edu.ec"/>
-    <hyperlink ref="D3" r:id="rId2" display="mailto:jcallea@ulvr.edu.ec"/>
-    <hyperlink ref="D4" r:id="rId3" display="mailto:lsuarezy@ulvr.edu.ec"/>
-    <hyperlink ref="D5" r:id="rId4" display="mailto:ljaramilloh@ulvr.edu.ec"/>
-    <hyperlink ref="D6" r:id="rId5" display="mailto:erivasc@ulvr.edu.ec"/>
-    <hyperlink ref="D7" r:id="rId6" display="mailto:kanaguanop@ulvr.edu.ec"/>
-    <hyperlink ref="D8" r:id="rId7" display="mailto:svillamarmon@ulvr.edu.ec"/>
-    <hyperlink ref="D9" r:id="rId8" display="mailto:cvillalbar@ulvr.edu.ec"/>
-    <hyperlink ref="D10" r:id="rId9" display="mailto:ddonosoo@ulvr.edu.ec"/>
-    <hyperlink ref="D11" r:id="rId10" display="mailto:ncastrot@ulvr.edu.ec"/>
-    <hyperlink ref="D12" r:id="rId11" display="mailto:gvelascob@ulvr.edu.ec"/>
-    <hyperlink ref="D13" r:id="rId12" display="mailto:btoledob@ulvr.edu.ec"/>
-    <hyperlink ref="D14" r:id="rId13" display="mailto:lmarmolejom@ulvr.edu.ec"/>
-    <hyperlink ref="D15" r:id="rId14" display="mailto:anarvaezs@ulvr.edu.ec"/>
-    <hyperlink ref="D16" r:id="rId15" display="mailto:jillingworthp@ulvr.edu.ec"/>
-    <hyperlink ref="D17" r:id="rId16" display="mailto:asolarid@ulvr.edu.ec"/>
-    <hyperlink ref="D18" r:id="rId17" display="mailto:rlucasc@ulvr.edu.ec"/>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:ccevallosce@ulvr.edu.ec" xr:uid="{A54D137A-B0AD-44D2-AABF-6BC0365798A3}"/>
+    <hyperlink ref="D3" r:id="rId2" display="mailto:ayagualma@ulvr.edu.ec" xr:uid="{211A4A85-564A-4CB0-A510-AE10A0F6DC5D}"/>
+    <hyperlink ref="D4" r:id="rId3" display="mailto:lpovedap@ulvr.edu.ec" xr:uid="{27BA55D2-D93D-4F69-9DCC-A5553C6AF54B}"/>
+    <hyperlink ref="D5" r:id="rId4" display="mailto:wislamg@ulvr.edu.ec" xr:uid="{2A908507-7336-472A-8053-EEEF505458FA}"/>
+    <hyperlink ref="D6" r:id="rId5" display="mailto:yholguinm@ulvr.edu.ec" xr:uid="{21D10C91-1265-4EC4-B420-F54CDBC6FE86}"/>
+    <hyperlink ref="D7" r:id="rId6" display="mailto:hnoboac@ulvr.edu.ec" xr:uid="{AE620612-E5B8-472D-842B-0689E98ED082}"/>
+    <hyperlink ref="D8" r:id="rId7" display="mailto:aangulom@ulvr.edu.ec" xr:uid="{88A9EEF6-837F-4C03-969A-3A12BF18C821}"/>
+    <hyperlink ref="D9" r:id="rId8" display="mailto:kcornejoo@ulvr.edu.ec" xr:uid="{62BE3255-02BF-433E-B369-E4DC80758FE7}"/>
+    <hyperlink ref="D10" r:id="rId9" display="mailto:kguerreros@ulvr.edu.ec" xr:uid="{7362AF1F-6E95-4FC1-AA21-62B845717F44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>